--- a/kNN/kNN-ex1.xlsx
+++ b/kNN/kNN-ex1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dai-Hoc\4-hk2\Nguyen-Ly-May-Hoc\KNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dai-Hoc\4-hk2\Nguyen-Ly-May-Hoc\ML\kNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8855BF6-980D-4858-A610-73B556CC8954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3280D915-B745-43BE-AB2D-E960A1D2C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>?</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Euclidean (q=2)</t>
+  </si>
+  <si>
+    <t>1st Nearest</t>
+  </si>
+  <si>
+    <t>2nd Nearest</t>
+  </si>
+  <si>
+    <t>3nd Nearest</t>
   </si>
 </sst>
 </file>
@@ -298,10 +307,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="F15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -626,26 +635,26 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -704,12 +713,12 @@
       <c r="O4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -744,7 +753,7 @@
         <v>0.15599999999999997</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M5" s="14">
         <v>5.8000000000000003E-2</v>
@@ -801,7 +810,7 @@
         <v>0.16399999999999992</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" s="16">
         <v>9.1999999999999998E-2</v>
@@ -858,7 +867,7 @@
         <v>0.20600000000000007</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M7" s="18">
         <v>0.106</v>
@@ -1017,7 +1026,7 @@
         <v>0.27399999999999991</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M10" s="14">
         <v>9.4E-2</v>
@@ -1062,7 +1071,7 @@
         <v>0.1999999999999999</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M11" s="16">
         <v>0.152</v>
@@ -1107,7 +1116,7 @@
         <v>0.35999999999999993</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M12" s="18">
         <v>0.152</v>
@@ -1118,12 +1127,12 @@
       <c r="O12" s="19">
         <v>1</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F13" s="4" t="s">
@@ -1222,7 +1231,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M15" s="14">
         <v>7.3999999999999996E-2</v>
@@ -1275,7 +1284,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M16" s="16">
         <v>0.112</v>
@@ -1332,7 +1341,7 @@
         <v>8.6000000000000021E-2</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M17" s="18">
         <v>0.11799999999999999</v>
@@ -1436,7 +1445,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L20" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M20" s="14">
         <v>8.5999999999999993E-2</v>
@@ -1450,7 +1459,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L21" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M21" s="16">
         <v>0.114</v>
@@ -1464,7 +1473,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L22" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M22" s="18">
         <v>0.156</v>
@@ -1477,27 +1486,27 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="Q25" s="24" t="s">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="Q25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="s">
@@ -1521,19 +1530,19 @@
         <v>19</v>
       </c>
       <c r="G27" s="3">
-        <f>SQRT(POWER(C3-$C$16,2)+POWER(B3-$B$16,2))</f>
+        <f t="shared" ref="G27:G36" si="4">SQRT(POWER(C3-$C$16,2)+POWER(B3-$B$16,2))</f>
         <v>0.21366328650472455</v>
       </c>
       <c r="H27" s="3">
-        <f>SQRT(POWER(C3-$C$17,2)+POWER(B3-$B$17,2))</f>
+        <f t="shared" ref="H27:H36" si="5">SQRT(POWER(C3-$C$17,2)+POWER(B3-$B$17,2))</f>
         <v>0.18288794383446935</v>
       </c>
       <c r="I27" s="19">
-        <f>SQRT(POWER(C3-$C$18,2)+POWER(B3-$B$18,2))</f>
+        <f t="shared" ref="I27:I36" si="6">SQRT(POWER(C3-$C$18,2)+POWER(B3-$B$18,2))</f>
         <v>8.8566359301938125E-2</v>
       </c>
       <c r="J27" s="19">
-        <f>SQRT(POWER(C3-$C$19,2)+POWER(B3-$B$19,2))</f>
+        <f t="shared" ref="J27:J36" si="7">SQRT(POWER(C3-$C$19,2)+POWER(B3-$B$19,2))</f>
         <v>0.11045361017187259</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -1548,35 +1557,35 @@
       <c r="O27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="3">
-        <f>SQRT(POWER(C4-$C$16,2)+POWER(B4-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.29840241285887759</v>
       </c>
       <c r="H28" s="3">
-        <f>SQRT(POWER(C4-$C$17,2)+POWER(B4-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.2568890811225733</v>
       </c>
       <c r="I28" s="3">
-        <f>SQRT(POWER(C4-$C$18,2)+POWER(B4-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.17196511274092779</v>
       </c>
       <c r="J28" s="3">
-        <f>SQRT(POWER(C4-$C$19,2)+POWER(B4-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.14042791745233565</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M28" s="14">
         <f>G40</f>
@@ -1606,26 +1615,26 @@
         <v>21</v>
       </c>
       <c r="G29" s="3">
-        <f>SQRT(POWER(C5-$C$16,2)+POWER(B5-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.36208286344426749</v>
       </c>
       <c r="H29" s="3">
-        <f>SQRT(POWER(C5-$C$17,2)+POWER(B5-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.302185373570595</v>
       </c>
       <c r="I29" s="3">
-        <f>SQRT(POWER(C5-$C$18,2)+POWER(B5-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.23503191272676144</v>
       </c>
       <c r="J29" s="3">
-        <f>SQRT(POWER(C5-$C$19,2)+POWER(B5-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.16130716041143373</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" ref="M29:M30" si="4">G41</f>
+        <f t="shared" ref="M29:M30" si="8">G41</f>
         <v>6.8876701430890294E-2</v>
       </c>
       <c r="N29" s="20">
@@ -1652,26 +1661,26 @@
         <v>22</v>
       </c>
       <c r="G30" s="3">
-        <f>SQRT(POWER(C6-$C$16,2)+POWER(B6-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.28289927536139076</v>
       </c>
       <c r="H30" s="3">
-        <f>SQRT(POWER(C6-$C$17,2)+POWER(B6-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.20927493877672027</v>
       </c>
       <c r="I30" s="3">
-        <f>SQRT(POWER(C6-$C$18,2)+POWER(B6-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.16230834852218781</v>
       </c>
       <c r="J30" s="14">
-        <f>SQRT(POWER(C6-$C$19,2)+POWER(B6-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>6.3529520697074376E-2</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M30" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.9624116949577592E-2</v>
       </c>
       <c r="N30" s="19">
@@ -1698,19 +1707,19 @@
         <v>23</v>
       </c>
       <c r="G31" s="3">
-        <f>SQRT(POWER(C7-$C$16,2)+POWER(B7-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.15440207252495031</v>
       </c>
       <c r="H31" s="14">
-        <f>SQRT(POWER(C7-$C$17,2)+POWER(B7-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>6.6843099868273678E-2</v>
       </c>
       <c r="I31" s="16">
-        <f>SQRT(POWER(C7-$C$18,2)+POWER(B7-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>7.9649231006959503E-2</v>
       </c>
       <c r="J31" s="16">
-        <f>SQRT(POWER(C7-$C$19,2)+POWER(B7-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>8.0622577482985458E-2</v>
       </c>
       <c r="Q31" s="9">
@@ -1731,19 +1740,19 @@
         <v>24</v>
       </c>
       <c r="G32" s="16">
-        <f>SQRT(POWER(C8-$C$16,2)+POWER(B8-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>6.8876701430890294E-2</v>
       </c>
       <c r="H32" s="3">
-        <f>SQRT(POWER(C8-$C$17,2)+POWER(B8-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.15295751043999115</v>
       </c>
       <c r="I32" s="3">
-        <f>SQRT(POWER(C8-$C$18,2)+POWER(B8-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.12033287165193057</v>
       </c>
       <c r="J32" s="3">
-        <f>SQRT(POWER(C8-$C$19,2)+POWER(B8-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.23903974564912833</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -1776,23 +1785,23 @@
         <v>25</v>
       </c>
       <c r="G33" s="18">
-        <f>SQRT(POWER(C9-$C$16,2)+POWER(B9-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>7.9624116949577592E-2</v>
       </c>
       <c r="H33" s="16">
-        <f>SQRT(POWER(C9-$C$17,2)+POWER(B9-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.1076289923765897</v>
       </c>
       <c r="I33" s="14">
-        <f>SQRT(POWER(C9-$C$18,2)+POWER(B9-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>5.6462376853972394E-2</v>
       </c>
       <c r="J33" s="3">
-        <f>SQRT(POWER(C9-$C$19,2)+POWER(B9-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.17426416728633565</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M33" s="14">
         <f>H40</f>
@@ -1810,26 +1819,26 @@
         <v>26</v>
       </c>
       <c r="G34" s="14">
-        <f>SQRT(POWER(C10-$C$16,2)+POWER(B10-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>5.603570290448754E-2</v>
       </c>
       <c r="H34" s="18">
-        <f>SQRT(POWER(C10-$C$17,2)+POWER(B10-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.11454256850621078</v>
       </c>
       <c r="I34" s="3">
-        <f>SQRT(POWER(C10-$C$18,2)+POWER(B10-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.1719185853827328</v>
       </c>
       <c r="J34" s="3">
-        <f>SQRT(POWER(C10-$C$19,2)+POWER(B10-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.2568112147083923</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:M35" si="5">H41</f>
+        <f t="shared" ref="M34:M35" si="9">H41</f>
         <v>0.1076289923765897</v>
       </c>
       <c r="N34" s="20">
@@ -1844,26 +1853,26 @@
         <v>27</v>
       </c>
       <c r="G35" s="3">
-        <f>SQRT(POWER(C11-$C$16,2)+POWER(B11-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.140655607780138</v>
       </c>
       <c r="H35" s="3">
-        <f>SQRT(POWER(C11-$C$17,2)+POWER(B11-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.21880585001320238</v>
       </c>
       <c r="I35" s="3">
-        <f>SQRT(POWER(C11-$C$18,2)+POWER(B11-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.15849290204927161</v>
       </c>
       <c r="J35" s="3">
-        <f>SQRT(POWER(C11-$C$19,2)+POWER(B11-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.27687542325024078</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.11454256850621078</v>
       </c>
       <c r="N35" s="19">
@@ -1872,31 +1881,31 @@
       <c r="O35" s="19">
         <v>1</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="Q35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="3">
-        <f>SQRT(POWER(C12-$C$16,2)+POWER(B12-$B$16,2))</f>
+        <f t="shared" si="4"/>
         <v>0.11228535078094559</v>
       </c>
       <c r="H36" s="3">
-        <f>SQRT(POWER(C12-$C$17,2)+POWER(B12-$B$17,2))</f>
+        <f t="shared" si="5"/>
         <v>0.21858636736997114</v>
       </c>
       <c r="I36" s="3">
-        <f>SQRT(POWER(C12-$C$18,2)+POWER(B12-$B$18,2))</f>
+        <f t="shared" si="6"/>
         <v>0.21587033144922904</v>
       </c>
       <c r="J36" s="3">
-        <f>SQRT(POWER(C12-$C$19,2)+POWER(B12-$B$19,2))</f>
+        <f t="shared" si="7"/>
         <v>0.33104078298602418</v>
       </c>
       <c r="Q36" s="9" t="s">
@@ -1950,7 +1959,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="L38" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M38" s="14">
         <f>I40</f>
@@ -1992,10 +2001,10 @@
         <v>18</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="6">I41</f>
+        <f t="shared" ref="M39:M40" si="10">I41</f>
         <v>7.9649231006959503E-2</v>
       </c>
       <c r="N39" s="20">
@@ -2026,22 +2035,22 @@
         <v>5.603570290448754E-2</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" ref="H40:J40" si="7">MIN(H27:H36)</f>
+        <f t="shared" ref="H40:J40" si="11">MIN(H27:H36)</f>
         <v>6.6843099868273678E-2</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.6462376853972394E-2</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.3529520697074376E-2</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M40" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.8566359301938125E-2</v>
       </c>
       <c r="N40" s="19">
@@ -2072,15 +2081,15 @@
         <v>6.8876701430890294E-2</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" ref="H41:J41" si="8">SMALL(H27:H36,2)</f>
+        <f t="shared" ref="H41:J41" si="12">SMALL(H27:H36,2)</f>
         <v>0.1076289923765897</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.9649231006959503E-2</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8.0622577482985458E-2</v>
       </c>
     </row>
@@ -2093,15 +2102,15 @@
         <v>7.9624116949577592E-2</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" ref="H42:J42" si="9">SMALL(H27:H36,3)</f>
+        <f t="shared" ref="H42:J42" si="13">SMALL(H27:H36,3)</f>
         <v>0.11454256850621078</v>
       </c>
       <c r="I42" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.8566359301938125E-2</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.11045361017187259</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -2119,7 +2128,7 @@
     </row>
     <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M43" s="14">
         <f>J40</f>
@@ -2134,10 +2143,10 @@
     </row>
     <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="L44" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44:M45" si="10">J41</f>
+        <f t="shared" ref="M44:M45" si="14">J41</f>
         <v>8.0622577482985458E-2</v>
       </c>
       <c r="N44" s="20">
@@ -2149,10 +2158,10 @@
     </row>
     <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="L45" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M45" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.11045361017187259</v>
       </c>
       <c r="N45" s="19">
